--- a/doc/BCA.xlsx
+++ b/doc/BCA.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\BP\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3389D93C-AA0E-4389-A923-BB10A8077BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6210758C-1CF2-4720-ACDC-D32A28A8B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UAT" sheetId="1" r:id="rId1"/>
+    <sheet name="UAT_BC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,9 +33,6 @@
     <t>DirectSellerID</t>
   </si>
   <si>
-    <t>(No column name)</t>
-  </si>
-  <si>
     <t>20003387213</t>
   </si>
   <si>
@@ -493,18 +490,29 @@
   </si>
   <si>
     <t>沙莉鹃</t>
+  </si>
+  <si>
+    <t>BC姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -842,18 +850,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -861,571 +869,573 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="2" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="2" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="2" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="2" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="2" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>155</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/BCA.xlsx
+++ b/doc/BCA.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\BP\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6210758C-1CF2-4720-ACDC-D32A28A8B25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7081EE38-21A1-4E95-8F8F-956517931205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UAT_BC" sheetId="1" r:id="rId1"/>
+    <sheet name="BCA_01" sheetId="2" r:id="rId2"/>
+    <sheet name="BCA_02" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="207">
   <si>
     <t>ContactID</t>
   </si>
@@ -494,25 +496,213 @@
   <si>
     <t>BC姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找license</t>
+  </si>
+  <si>
+    <t>BC work space --&gt; Business Director License Info</t>
+  </si>
+  <si>
+    <t>点击执照编号，打开License InfoDetail界面</t>
+  </si>
+  <si>
+    <t>通过国家企业信用信息公示系统，查看执照状态</t>
+  </si>
+  <si>
+    <t>http://www.gsxt.gov.cn/corp-query-homepage.html</t>
+  </si>
+  <si>
+    <t>执行状态为，在营，开业，存续(xxxxx)等为可用执照</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>具体操作</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>终止执照</t>
+  </si>
+  <si>
+    <t>BC work space --&gt; Business Director License terminated by Others</t>
+  </si>
+  <si>
+    <t>选择要终止的执照，执照有效截至日选择当前日期前一天，提交确认，并需要审核。</t>
+  </si>
+  <si>
+    <t>My Workspace --&gt; Request Job</t>
+  </si>
+  <si>
+    <t>Job Type: CCM</t>
+  </si>
+  <si>
+    <t>Job Category: CCM BDL Expiration Work</t>
+  </si>
+  <si>
+    <t>选择中Select Job(s)中的BDLExpirationBuildWorkJob</t>
+  </si>
+  <si>
+    <t>Job Run Time选择日期为当前日期前一天（同执照有效截止日），其他项不用操作。</t>
+  </si>
+  <si>
+    <t>点击 Submit</t>
+  </si>
+  <si>
+    <t>可通过 My Workspace --&gt; Job Status界面查看job状态</t>
+  </si>
+  <si>
+    <t>Begin Date需调整为不晚于Job Run time日期当天</t>
+  </si>
+  <si>
+    <t>Job 状态为Complete后，BC workspace --&gt; Contact History中生成一条 Agreement termianted by BDL expired的case</t>
+  </si>
+  <si>
+    <t>BC变更渠道</t>
+  </si>
+  <si>
+    <t>BC workspace --&gt; Open License Request Change，选择对应渠道，并提交。</t>
+  </si>
+  <si>
+    <t>可在FO数据库查看 ：1,个人劳务；2,代办执照；3，自有执照</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_VendorLicenseNameList</t>
+  </si>
+  <si>
+    <t>如果选择渠道为3，自有执照流程结束；如果渠道为2,代办执照，需要后续操作</t>
+  </si>
+  <si>
+    <t>收稻代办</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>前提</t>
+  </si>
+  <si>
+    <t>BC workspace --&gt; Open License Request Change，渠道以选择为收稻代办</t>
+  </si>
+  <si>
+    <t>VendorLicenseType = 2</t>
+  </si>
+  <si>
+    <t>初始状态</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_BPWorkShouDaoRegUsers</t>
+  </si>
+  <si>
+    <t>为空</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_ShouDaoVendorLicenseResult</t>
+  </si>
+  <si>
+    <t>Job Category: CCM Shoudao RegUser Process Sync</t>
+  </si>
+  <si>
+    <t>选择中Select Job(s)中的CCM Shoudao RegUser Process Sync</t>
+  </si>
+  <si>
+    <t>Job Run Time选择日期为当前日期前一天，其他项不用操作。</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>有新数据，且StatusID为3</t>
+  </si>
+  <si>
+    <t>有新数据，且StatusID为1</t>
+  </si>
+  <si>
+    <t>手动更新cn.CCM_ShouDaoVendorLicenseResult表</t>
+  </si>
+  <si>
+    <t>update cn.CCM_ShouDaoVendorLicenseResult set StatusID = 2 where contactid = xxxxxxx</t>
+  </si>
+  <si>
+    <t>StatusID 更新为 2</t>
+  </si>
+  <si>
+    <t>根据LicenseID 查找 BDLID</t>
+  </si>
+  <si>
+    <t>select * from cn.BDA_BusinessDirectorLicense where GovLicenceNumber='91310115MA1H7MM37U'</t>
+  </si>
+  <si>
+    <t>select top 10  * from cn.BDA_BusinessDirectorLicenseExtn where ContactID=20003963718</t>
+  </si>
+  <si>
+    <t>update cn.BDA_BusinessDirectorLicenseExtn set VendorLicense=1 where BDLID='00AE27F6-3D61-4E8D-A918-3EC032CC06EF'</t>
+  </si>
+  <si>
+    <t>cn.BDA_BusinessDirectorLicenseExtn表查找数据，并更新VendorLicense字段 = 1</t>
+  </si>
+  <si>
+    <r>
+      <t>如果cn.BDA_BusinessDirectorLicenseExtn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表中没有对应数据需要手动插入</t>
+    </r>
+  </si>
+  <si>
+    <t>ebizfoawscnqa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -554,10 +744,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -568,9 +759,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,18 +1047,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,7 +1069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,7 +1080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -894,7 +1091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -905,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -916,7 +1113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -927,7 +1124,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -938,7 +1135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -949,7 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -960,7 +1157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -971,7 +1168,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -982,7 +1179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
@@ -993,7 +1190,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1004,7 +1201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1212,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1026,7 +1223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -1037,7 +1234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
@@ -1048,7 +1245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1059,7 +1256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1070,7 +1267,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1081,7 +1278,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -1092,7 +1289,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1103,7 +1300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -1114,7 +1311,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -1125,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -1136,7 +1333,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
@@ -1147,7 +1344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
@@ -1158,7 +1355,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -1169,7 +1366,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>83</v>
       </c>
@@ -1180,7 +1377,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -1191,7 +1388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>89</v>
       </c>
@@ -1202,7 +1399,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>92</v>
       </c>
@@ -1213,7 +1410,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>95</v>
       </c>
@@ -1224,7 +1421,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
@@ -1235,7 +1432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
@@ -1246,7 +1443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
@@ -1257,7 +1454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
@@ -1268,7 +1465,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
         <v>110</v>
       </c>
@@ -1279,7 +1476,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -1290,7 +1487,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
         <v>116</v>
       </c>
@@ -1301,7 +1498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
         <v>119</v>
       </c>
@@ -1312,7 +1509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
         <v>122</v>
       </c>
@@ -1323,7 +1520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
         <v>125</v>
       </c>
@@ -1334,7 +1531,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
         <v>128</v>
       </c>
@@ -1345,7 +1542,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -1356,7 +1553,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
         <v>134</v>
       </c>
@@ -1367,7 +1564,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
         <v>137</v>
       </c>
@@ -1378,7 +1575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
         <v>140</v>
       </c>
@@ -1389,7 +1586,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
         <v>143</v>
       </c>
@@ -1400,7 +1597,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="2" t="s">
         <v>146</v>
       </c>
@@ -1411,7 +1608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
         <v>149</v>
       </c>
@@ -1422,7 +1619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="2" t="s">
         <v>152</v>
       </c>
@@ -1438,4 +1635,355 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B30DBF-9053-4DC7-BE34-0A8FFE9B2BF3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35C68FE-8130-4258-82E1-10F5FE604A1F}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16.5">
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16.5">
+      <c r="C22" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5">
+      <c r="C23" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+      <c r="D31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16.5">
+      <c r="C32" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="16.5">
+      <c r="C33" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="C35" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>204</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="C39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{077377B4-C348-4915-A099-E8CB038CEA56}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>